--- a/Documents/Files/Race.xlsx
+++ b/Documents/Files/Race.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sparta_Coding_Club\TeamProject\TextRPG_TeamProject2nd\TextRPG_TeamProject2nd\Documents\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC0789-253A-45BC-9512-215662A9EEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="30870" yWindow="19350" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -34,27 +43,394 @@
     <t>DESC</t>
   </si>
   <si>
-    <t>기사</t>
-  </si>
-  <si>
-    <t>강력한 기사</t>
+    <t>고양이족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐돌이족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고양이들은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빨라야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교육받는다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그럼에도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그들의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>천성은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>느긋하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숭고한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여행으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보이지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실상은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>느긋하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>즐기고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는 것이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노동을 숭배하는 자들. 그들은 태생 부터 노동에 몰두한다. 이것도 수 많은 일과 중 하나일 뿐인 것일까. 하여간 종족적 워커홀릭들 같으니…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수면양족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸근해 보이는 외형과는 달리, 한번 불타면 재가 될 때 까지 불태우는 종족. 당신은 모험에 불이 붙었다. 탐험이라는 연못으로 뛰어들어라.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈에 보이지 않는 곳에, 그들은 있다. 미지를 동경하고 미지를 탐험하는 자들. 그들은 발견을 숭배하고 탐험을 지향한다. 음식에도 그러하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지는 그들이 검을 받았을 때, 그 검의 명예를 찾아서 떠난다. 식탐이 많아서 식도락 여행으로 오인받기도 하지만, 일단은 숭고한 것이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,39 +438,63 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -284,23 +684,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="12.5703125" style="3"/>
+    <col min="7" max="7" width="119.42578125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -323,30 +730,126 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100.0</v>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>120</v>
+      </c>
+      <c r="C3" s="3">
+        <v>120</v>
+      </c>
+      <c r="D3" s="3">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3">
+        <v>125</v>
+      </c>
+      <c r="D4" s="3">
+        <v>125</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3">
+        <v>80</v>
+      </c>
+      <c r="E5" s="3">
         <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>200</v>
+      </c>
+      <c r="C6" s="3">
+        <v>85</v>
+      </c>
+      <c r="D6" s="3">
+        <v>85</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+    <sortCondition ref="A1:A3"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/Files/Race.xlsx
+++ b/Documents/Files/Race.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sparta_Coding_Club\TeamProject\TextRPG_TeamProject2nd\TextRPG_TeamProject2nd\Documents\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC0789-253A-45BC-9512-215662A9EEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7629F6A-43EC-4BF0-AE56-8FCA60A45E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30870" yWindow="19350" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="16110" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -59,6 +59,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>노동을 숭배하는 자들. 그들은 태생 부터 노동에 몰두한다. 이것도 수 많은 일과 중 하나일 뿐인 것일까. 하여간 종족적 워커홀릭들 같으니…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수면양족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지는 그들이 검을 받았을 때 그 검의 명예를 찾아서 떠난다. 식탐이 많아서 식도락 여행으로 오인받기도 하지만... 일단은 숭고한 것이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -257,26 +269,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>보이지만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실상은</t>
+      <t>보이지만...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그냥</t>
     </r>
     <r>
       <rPr>
@@ -347,23 +359,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>노동을 숭배하는 자들. 그들은 태생 부터 노동에 몰두한다. 이것도 수 많은 일과 중 하나일 뿐인 것일까. 하여간 종족적 워커홀릭들 같으니…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수면양족</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸근해 보이는 외형과는 달리, 한번 불타면 재가 될 때 까지 불태우는 종족. 당신은 모험에 불이 붙었다. 탐험이라는 연못으로 뛰어들어라.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈에 보이지 않는 곳에, 그들은 있다. 미지를 동경하고 미지를 탐험하는 자들. 그들은 발견을 숭배하고 탐험을 지향한다. 음식에도 그러하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강아지는 그들이 검을 받았을 때, 그 검의 명예를 찾아서 떠난다. 식탐이 많아서 식도락 여행으로 오인받기도 하지만, 일단은 숭고한 것이다.</t>
+    <t>그들은 미지를 동경하고 신비를 탐험하는 자들. 그들은 발견을 숭배하고 탐험을 지향한다. 음식에도 그러하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸근해 보이는 외형과는 달리 한번 불타면 재가 될 때 까지 불태우는 종족. 당신은 모험에 불이 붙었다. 탐험이라는 연못으로 뛰어들어라.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -430,6 +430,13 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -698,7 +705,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -750,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
@@ -773,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
@@ -796,7 +803,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
@@ -839,10 +846,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
